--- a/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
+++ b/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Rio_de_Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E712FD-E041-452B-976C-9809541009F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FCCC0-8E58-49D5-BAC1-B47EDBD0FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="195" yWindow="780" windowWidth="28605" windowHeight="10125" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Disjunt" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$T$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Classes!$A$1:$T$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="123">
   <si>
     <t>Lote</t>
   </si>
@@ -164,12 +164,6 @@
     <t>De.Construção</t>
   </si>
   <si>
-    <t>Edificável</t>
-  </si>
-  <si>
-    <t>De.Organização</t>
-  </si>
-  <si>
     <t>De.Divisão</t>
   </si>
   <si>
@@ -285,9 +279,6 @@
   </si>
   <si>
     <t>Disjunta 20</t>
-  </si>
-  <si>
-    <t>Div.Política</t>
   </si>
   <si>
     <t>tem.continente</t>
@@ -435,13 +426,28 @@
   <si>
     <t>Range
 (16)</t>
+  </si>
+  <si>
+    <t>tem.descrição</t>
+  </si>
+  <si>
+    <t>SubContinente</t>
+  </si>
+  <si>
+    <t>Política</t>
+  </si>
+  <si>
+    <t>Predial</t>
+  </si>
+  <si>
+    <t>De.Ordem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,12 +503,6 @@
       <sz val="6"/>
       <name val="Arial Nova Cond"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -726,7 +726,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -748,7 +747,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -757,7 +756,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -772,20 +771,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -815,12 +814,13 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,7 +990,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1286,37 +1286,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB1CF42B-C783-4349-9A5C-FEC66E5FAE0F}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8" style="33" customWidth="1"/>
-    <col min="8" max="9" width="7.88671875" style="33" customWidth="1"/>
-    <col min="10" max="10" width="8.5546875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="34.109375" customWidth="1"/>
-    <col min="17" max="17" width="8.21875" customWidth="1"/>
-    <col min="18" max="18" width="4.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8" style="32" customWidth="1"/>
+    <col min="8" max="9" width="7.85546875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="32" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="38.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -1324,31 +1324,31 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>110</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>113</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
@@ -1378,24 +1378,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>10</v>
@@ -1413,57 +1413,57 @@
         <v>10</v>
       </c>
       <c r="L2" s="3" t="str">
-        <f t="shared" ref="L2:L16" si="0">_xlfn.CONCAT("Trata-se de: ", SUBSTITUTE(B2,"1.",""))</f>
-        <v>Trata-se de: BIM</v>
+        <f>_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B2,"1.",""))</f>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M2" s="3" t="str">
-        <f t="shared" ref="M2:M16" si="1">_xlfn.CONCAT(SUBSTITUTE(C2,"."," ")," ")</f>
+        <f t="shared" ref="M2" si="0">_xlfn.CONCAT(SUBSTITUTE(C2,"."," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N2" s="3" t="str">
-        <f t="shared" ref="N2:N16" si="2">_xlfn.CONCAT(SUBSTITUTE(D2,"."," ")," ")</f>
+        <f t="shared" ref="N2" si="1">_xlfn.CONCAT(SUBSTITUTE(D2,"."," ")," ")</f>
         <v xml:space="preserve">De Divisão </v>
       </c>
       <c r="O2" s="3" t="str">
-        <f t="shared" ref="O2:O16" si="3">_xlfn.CONCAT(SUBSTITUTE(E2,"."," ")," ")</f>
-        <v xml:space="preserve">Div Política </v>
+        <f t="shared" ref="O2" si="2">_xlfn.CONCAT(SUBSTITUTE(E2,"."," ")," ")</f>
+        <v xml:space="preserve">Política </v>
       </c>
       <c r="P2" s="3" t="str">
-        <f>_xlfn.CONCAT(L2," ",M2," ",N2," ",O2," ", SUBSTITUTE(F2, ".", " "))</f>
-        <v>Trata-se de: BIM Limite  De Divisão  Div Política  Continente</v>
-      </c>
-      <c r="Q2" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="44" t="s">
-        <v>91</v>
+        <f>_xlfn.CONCAT(L2," - ",M2," - ",N2," - ",O2," - ", SUBSTITUTE(F2, ".", " "))</f>
+        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Continente</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T2" s="6" t="str">
-        <f t="shared" ref="T2:T16" si="4">_xlfn.CONCAT("key_",A2)</f>
+        <f t="shared" ref="T2" si="3">_xlfn.CONCAT("key_",A2)</f>
         <v>key_2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>39</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>10</v>
@@ -1481,57 +1481,57 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" ref="L3:L18" si="4">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B3,"1.",""))</f>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M3" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M3:M17" si="5">_xlfn.CONCAT(SUBSTITUTE(C3,"."," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N3" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N3:N17" si="6">_xlfn.CONCAT(SUBSTITUTE(D3,"."," ")," ")</f>
         <v xml:space="preserve">De Divisão </v>
       </c>
       <c r="O3" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Div Política </v>
+        <f t="shared" ref="O3:O17" si="7">_xlfn.CONCAT(SUBSTITUTE(E3,"."," ")," ")</f>
+        <v xml:space="preserve">Política </v>
       </c>
       <c r="P3" s="3" t="str">
-        <f t="shared" ref="P3:P17" si="5">_xlfn.CONCAT(L3," ",M3," ",N3," ",O3," ", SUBSTITUTE(F3, ".", " "))</f>
-        <v>Trata-se de: BIM Limite  De Divisão  Div Política  País</v>
-      </c>
-      <c r="Q3" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R3" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="44" t="s">
-        <v>91</v>
+        <f t="shared" ref="P3:P18" si="8">_xlfn.CONCAT(L3," - ",M3," - ",N3," - ",O3," - ", SUBSTITUTE(F3, ".", " "))</f>
+        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - SubContinente</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="T3:T17" si="9">_xlfn.CONCAT("key_",A3)</f>
         <v>key_3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>90</v>
+      <c r="B4" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>10</v>
@@ -1549,57 +1549,57 @@
         <v>10</v>
       </c>
       <c r="L4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N4" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Divisão </v>
       </c>
       <c r="O4" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Div Política </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Política </v>
       </c>
       <c r="P4" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Divisão  Div Política  Estado</v>
-      </c>
-      <c r="Q4" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - País</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T4" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_4</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>90</v>
+      <c r="B5" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>10</v>
@@ -1617,57 +1617,57 @@
         <v>10</v>
       </c>
       <c r="L5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M5" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N5" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Divisão </v>
       </c>
       <c r="O5" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Div Política </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Política </v>
       </c>
       <c r="P5" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Divisão  Div Política  Cidade</v>
-      </c>
-      <c r="Q5" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R5" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S5" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Estado</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T5" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_5</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>90</v>
+      <c r="B6" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
@@ -1685,45 +1685,45 @@
         <v>10</v>
       </c>
       <c r="L6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M6" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Zoneamento </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Divisão </v>
       </c>
       <c r="O6" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Urbano </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Política </v>
       </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Zoneamento  Urbano  Area de Planejamento</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R6" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S6" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Cidade</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T6" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_6</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>7</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>90</v>
+      <c r="B7" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
@@ -1735,7 +1735,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>10</v>
@@ -1753,45 +1753,45 @@
         <v>10</v>
       </c>
       <c r="L7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M7" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N7" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="O7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Urbano </v>
       </c>
       <c r="P7" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Zoneamento  Urbano  Região Administrativa</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Area de Planejamento</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T7" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_7</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>8</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>90</v>
+      <c r="B8" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
@@ -1803,7 +1803,7 @@
         <v>36</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>10</v>
@@ -1821,45 +1821,45 @@
         <v>10</v>
       </c>
       <c r="L8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M8" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N8" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="O8" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Urbano </v>
       </c>
       <c r="P8" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Zoneamento  Urbano  Bairro</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S8" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Região Administrativa</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T8" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>9</v>
       </c>
-      <c r="B9" s="38" t="s">
-        <v>90</v>
+      <c r="B9" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -1871,7 +1871,7 @@
         <v>36</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>10</v>
@@ -1889,57 +1889,57 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M9" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N9" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="O9" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Urbano </v>
       </c>
       <c r="P9" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Zoneamento  Urbano  Quadra</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R9" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Bairro</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T9" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_9</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>10</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>90</v>
+      <c r="B10" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>10</v>
@@ -1957,57 +1957,57 @@
         <v>10</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M10" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N10" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Construção </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="O10" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Edificável </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="P10" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Construção  Edificável  Lote</v>
-      </c>
-      <c r="Q10" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Quadra</v>
+      </c>
+      <c r="Q10" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T10" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>90</v>
+      <c r="B11" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>10</v>
@@ -2025,45 +2025,45 @@
         <v>10</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M11" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N11" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Construção </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Zoneamento </v>
       </c>
       <c r="O11" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Edificável </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Urbano </v>
       </c>
       <c r="P11" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Construção  Edificável  Prédio</v>
-      </c>
-      <c r="Q11" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Lote</v>
+      </c>
+      <c r="Q11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T11" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_11</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>12</v>
       </c>
-      <c r="B12" s="38" t="s">
-        <v>90</v>
+      <c r="B12" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -2071,11 +2071,11 @@
       <c r="D12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>39</v>
+      <c r="E12" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>10</v>
@@ -2093,45 +2093,45 @@
         <v>10</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M12" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N12" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Construção </v>
       </c>
       <c r="O12" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Edificável </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Predial </v>
       </c>
       <c r="P12" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Construção  Edificável  Bloco</v>
-      </c>
-      <c r="Q12" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R12" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S12" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Prédio</v>
+      </c>
+      <c r="Q12" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T12" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_12</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>13</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>90</v>
+      <c r="B13" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
@@ -2139,11 +2139,11 @@
       <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="38" t="s">
-        <v>39</v>
+      <c r="E13" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>10</v>
@@ -2161,57 +2161,57 @@
         <v>10</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M13" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N13" s="3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">De Construção </v>
       </c>
       <c r="O13" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Edificável </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Predial </v>
       </c>
       <c r="P13" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Construção  Edificável  Edícula</v>
-      </c>
-      <c r="Q13" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S13" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Bloco</v>
+      </c>
+      <c r="Q13" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T13" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_13</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>14</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>90</v>
+      <c r="B14" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>10</v>
@@ -2229,57 +2229,57 @@
         <v>10</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N14" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Organização </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Construção </v>
       </c>
       <c r="O14" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Funcional </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">Predial </v>
       </c>
       <c r="P14" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Organização  Funcional  Ambiente</v>
-      </c>
-      <c r="Q14" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S14" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Edícula</v>
+      </c>
+      <c r="Q14" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R14" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T14" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>15</v>
       </c>
-      <c r="B15" s="38" t="s">
-        <v>90</v>
+      <c r="B15" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>40</v>
+      <c r="D15" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="38" t="s">
-        <v>13</v>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>10</v>
@@ -2297,57 +2297,57 @@
         <v>10</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Organização </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Ordem </v>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Funcional </v>
       </c>
       <c r="P15" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Organização  Funcional  Setor</v>
-      </c>
-      <c r="Q15" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S15" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Ambiente</v>
+      </c>
+      <c r="Q15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T15" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>16</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>90</v>
+      <c r="B16" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>40</v>
+      <c r="D16" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>16</v>
+      <c r="F16" s="37" t="s">
+        <v>13</v>
       </c>
       <c r="G16" s="14" t="s">
         <v>10</v>
@@ -2365,57 +2365,57 @@
         <v>10</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">De Organização </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Ordem </v>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Funcional </v>
       </c>
       <c r="P16" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Organização  Funcional  Divisão</v>
-      </c>
-      <c r="Q16" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S16" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Setor</v>
+      </c>
+      <c r="Q16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T16" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>key_16</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>17</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>90</v>
+      <c r="B17" s="37" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>40</v>
+      <c r="D17" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="38" t="s">
-        <v>92</v>
+      <c r="F17" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G17" s="14" t="s">
         <v>10</v>
@@ -2433,42 +2433,110 @@
         <v>10</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f t="shared" ref="L17" si="6">_xlfn.CONCAT("Trata-se de: ", SUBSTITUTE(B17,"1.",""))</f>
-        <v>Trata-se de: BIM</v>
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" ref="M17" si="7">_xlfn.CONCAT(SUBSTITUTE(C17,"."," ")," ")</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" ref="N17" si="8">_xlfn.CONCAT(SUBSTITUTE(D17,"."," ")," ")</f>
-        <v xml:space="preserve">De Organização </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">De Ordem </v>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" ref="O17" si="9">_xlfn.CONCAT(SUBSTITUTE(E17,"."," ")," ")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Funcional </v>
       </c>
       <c r="P17" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v>Trata-se de: BIM Limite  De Organização  Funcional  Núcleo</v>
-      </c>
-      <c r="Q17" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="R17" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="S17" s="44" t="s">
-        <v>91</v>
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Divisão</v>
+      </c>
+      <c r="Q17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>88</v>
       </c>
       <c r="T17" s="6" t="str">
-        <f t="shared" ref="T17" si="10">_xlfn.CONCAT("key_",A17)</f>
+        <f t="shared" si="9"/>
         <v>key_17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>18</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Conceito de: BIM</v>
+      </c>
+      <c r="M18" s="3" t="str">
+        <f t="shared" ref="M18" si="10">_xlfn.CONCAT(SUBSTITUTE(C18,"."," ")," ")</f>
+        <v xml:space="preserve">Limite </v>
+      </c>
+      <c r="N18" s="3" t="str">
+        <f t="shared" ref="N18" si="11">_xlfn.CONCAT(SUBSTITUTE(D18,"."," ")," ")</f>
+        <v xml:space="preserve">De Ordem </v>
+      </c>
+      <c r="O18" s="3" t="str">
+        <f t="shared" ref="O18" si="12">_xlfn.CONCAT(SUBSTITUTE(E18,"."," ")," ")</f>
+        <v xml:space="preserve">Funcional </v>
+      </c>
+      <c r="P18" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Núcleo</v>
+      </c>
+      <c r="Q18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f t="shared" ref="T18" si="13">_xlfn.CONCAT("key_",A18)</f>
+        <v>key_18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F1:F17">
+  <conditionalFormatting sqref="F1:F18">
     <cfRule type="duplicateValues" dxfId="15" priority="3175"/>
     <cfRule type="duplicateValues" dxfId="14" priority="3176"/>
   </conditionalFormatting>
@@ -2481,7 +2549,7 @@
     <cfRule type="duplicateValues" dxfId="8" priority="708"/>
     <cfRule type="duplicateValues" dxfId="7" priority="709"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F1048576">
+  <conditionalFormatting sqref="F19:F1048576">
     <cfRule type="duplicateValues" dxfId="6" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1048576">
@@ -2496,271 +2564,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C24" sqref="C24"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" style="19" customWidth="1"/>
-    <col min="11" max="11" width="7.5546875" style="19" customWidth="1"/>
-    <col min="12" max="13" width="7.33203125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="19" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="43" style="13" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="13" customWidth="1"/>
-    <col min="20" max="20" width="8.33203125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="31.77734375" style="13" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="8" style="13" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" style="18" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="7" style="18" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="18" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" style="18" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="13" customWidth="1"/>
+    <col min="18" max="18" width="34" style="13" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="13" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" style="13" customWidth="1"/>
+    <col min="21" max="21" width="23.140625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="27" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47">
+    <row r="1" spans="1:22" s="26" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46">
+        <v>2</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q1" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47">
-        <v>2</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="35" t="str">
+      <c r="C2" s="34" t="str">
         <f t="shared" ref="C2:C20" si="0">F2</f>
         <v>de.localização</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="22" t="s">
+      <c r="E2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="18" t="str">
+      <c r="R2" s="17" t="str">
         <f t="shared" ref="R2:R22" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
         <v>Propriedade: de.localização    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S2" s="18" t="str">
+      <c r="S2" s="17" t="str">
         <f t="shared" ref="S2:S26" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
         <v>Valor:  de.localização</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U2" s="26" t="str">
-        <f t="shared" ref="U2:U26" si="3">_xlfn.CONCAT("Refere-se a propriedade  ",F2, "  &gt;  ",C2)</f>
-        <v>Refere-se a propriedade  de.localização  &gt;  de.localização</v>
-      </c>
-      <c r="V2" s="26" t="str">
-        <f t="shared" ref="V2:V26" si="4">C2</f>
+      <c r="T2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="25" t="str">
+        <f>_xlfn.CONCAT("Refere-se à propriedade  ",F2, )</f>
+        <v>Refere-se à propriedade  de.localização</v>
+      </c>
+      <c r="V2" s="25" t="str">
+        <f t="shared" ref="V2:V26" si="3">C2</f>
         <v>de.localização</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47">
+    <row r="3" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="str">
+      <c r="B3" s="27" t="str">
         <f>E3</f>
         <v>de.localização</v>
       </c>
-      <c r="C3" s="40" t="str">
+      <c r="C3" s="39" t="str">
         <f t="shared" si="0"/>
         <v>predial</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="29" t="str">
+      <c r="E3" s="28" t="str">
         <f>F2</f>
         <v>de.localização</v>
       </c>
-      <c r="F3" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="25" t="s">
+      <c r="F3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3:P26" si="5">P2</f>
+        <f t="shared" ref="P3:P27" si="4">P2</f>
         <v>BIM</v>
       </c>
       <c r="Q3" s="11" t="str">
-        <f t="shared" ref="Q3:Q26" si="6">Q2</f>
+        <f t="shared" ref="Q3:Q27" si="5">Q2</f>
         <v>Limite</v>
       </c>
-      <c r="R3" s="18" t="str">
+      <c r="R3" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: predial    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S3" s="18" t="str">
+      <c r="S3" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  predial</v>
       </c>
-      <c r="T3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="26" t="str">
+      <c r="T3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="25" t="str">
+        <f t="shared" ref="U3:U27" si="6">_xlfn.CONCAT("Refere-se à propriedade  ",F3, )</f>
+        <v>Refere-se à propriedade  predial</v>
+      </c>
+      <c r="V3" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  predial  &gt;  predial</v>
-      </c>
-      <c r="V3" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>predial</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47">
+    <row r="4" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
         <v>4</v>
       </c>
-      <c r="B4" s="34" t="str">
+      <c r="B4" s="33" t="str">
         <f>E4</f>
         <v>predial</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="41" t="str">
         <f t="shared" ref="C4:C19" si="7">MID(F4,FIND(".",F4,1)+1,100)</f>
         <v>ambiente</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="12" t="str">
@@ -2768,76 +2837,76 @@
         <v>predial</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P4" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q4" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q4" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R4" s="18" t="str">
+      <c r="R4" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.ambiente    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S4" s="18" t="str">
+      <c r="S4" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  ambiente</v>
       </c>
-      <c r="T4" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="26" t="str">
+      <c r="T4" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.ambiente</v>
+      </c>
+      <c r="V4" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.ambiente  &gt;  ambiente</v>
-      </c>
-      <c r="V4" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>ambiente</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47">
+    <row r="5" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
         <v>5</v>
       </c>
-      <c r="B5" s="34" t="str">
+      <c r="B5" s="33" t="str">
         <f t="shared" ref="B5:B15" si="8">E5</f>
         <v>predial</v>
       </c>
-      <c r="C5" s="42" t="str">
+      <c r="C5" s="41" t="str">
         <f t="shared" si="7"/>
         <v>divisão</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="12" t="str">
@@ -2845,76 +2914,76 @@
         <v>predial</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P5" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q5" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q5" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R5" s="18" t="str">
+      <c r="R5" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.divisão    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S5" s="18" t="str">
+      <c r="S5" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  divisão</v>
       </c>
-      <c r="T5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U5" s="26" t="str">
+      <c r="T5" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.divisão</v>
+      </c>
+      <c r="V5" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.divisão  &gt;  divisão</v>
-      </c>
-      <c r="V5" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>divisão</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
+    <row r="6" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
         <v>6</v>
       </c>
-      <c r="B6" s="34" t="str">
+      <c r="B6" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C6" s="42" t="str">
+      <c r="C6" s="41" t="str">
         <f t="shared" si="7"/>
         <v>zona</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="12" t="str">
@@ -2922,76 +2991,76 @@
         <v>predial</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q6" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q6" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R6" s="18" t="str">
+      <c r="R6" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.zona    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S6" s="18" t="str">
+      <c r="S6" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  zona</v>
       </c>
-      <c r="T6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U6" s="26" t="str">
+      <c r="T6" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.zona</v>
+      </c>
+      <c r="V6" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.zona  &gt;  zona</v>
-      </c>
-      <c r="V6" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>zona</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+    <row r="7" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
         <v>7</v>
       </c>
-      <c r="B7" s="34" t="str">
+      <c r="B7" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C7" s="42" t="str">
+      <c r="C7" s="41" t="str">
         <f t="shared" si="7"/>
         <v>agrupado.com</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="12" t="str">
@@ -2999,76 +3068,76 @@
         <v>predial</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="25" t="s">
+      <c r="J7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P7" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q7" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q7" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R7" s="18" t="str">
+      <c r="R7" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.agrupado.com    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S7" s="18" t="str">
+      <c r="S7" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  agrupado.com</v>
       </c>
-      <c r="T7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" s="26" t="str">
+      <c r="T7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U7" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.agrupado.com</v>
+      </c>
+      <c r="V7" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.agrupado.com  &gt;  agrupado.com</v>
-      </c>
-      <c r="V7" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>agrupado.com</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+    <row r="8" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="46">
         <v>8</v>
       </c>
-      <c r="B8" s="34" t="str">
+      <c r="B8" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C8" s="42" t="str">
+      <c r="C8" s="41" t="str">
         <f t="shared" si="7"/>
         <v>setor</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="12" t="str">
@@ -3076,76 +3145,76 @@
         <v>predial</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O8" s="25" t="s">
+      <c r="J8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P8" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q8" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q8" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R8" s="18" t="str">
+      <c r="R8" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.setor    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S8" s="18" t="str">
+      <c r="S8" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  setor</v>
       </c>
-      <c r="T8" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="26" t="str">
+      <c r="T8" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.setor</v>
+      </c>
+      <c r="V8" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.setor  &gt;  setor</v>
-      </c>
-      <c r="V8" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>setor</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+    <row r="9" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46">
         <v>9</v>
       </c>
-      <c r="B9" s="34" t="str">
+      <c r="B9" s="33" t="str">
         <f t="shared" ref="B9:B10" si="10">E9</f>
         <v>predial</v>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="41" t="str">
         <f t="shared" si="7"/>
         <v>núcleo</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="12" t="str">
@@ -3153,76 +3222,76 @@
         <v>predial</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="25" t="s">
+      <c r="J9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P9" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q9" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q9" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R9" s="18" t="str">
+      <c r="R9" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.núcleo    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S9" s="18" t="str">
+      <c r="S9" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  núcleo</v>
       </c>
-      <c r="T9" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="26" t="str">
+      <c r="T9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.núcleo</v>
+      </c>
+      <c r="V9" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.núcleo  &gt;  núcleo</v>
-      </c>
-      <c r="V9" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>núcleo</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
-        <v>10</v>
-      </c>
-      <c r="B10" s="34" t="str">
+    <row r="10" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46">
+        <v>10</v>
+      </c>
+      <c r="B10" s="33" t="str">
         <f t="shared" si="10"/>
         <v>predial</v>
       </c>
-      <c r="C10" s="42" t="str">
+      <c r="C10" s="41" t="str">
         <f t="shared" si="7"/>
         <v>dentro.de</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="12" t="str">
@@ -3230,76 +3299,76 @@
         <v>predial</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="25" t="s">
+      <c r="J10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="25" t="s">
+      <c r="L10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P10" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q10" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q10" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R10" s="18" t="str">
+      <c r="R10" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.dentro.de    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S10" s="18" t="str">
+      <c r="S10" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  dentro.de</v>
       </c>
-      <c r="T10" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="26" t="str">
+      <c r="T10" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.dentro.de</v>
+      </c>
+      <c r="V10" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.dentro.de  &gt;  dentro.de</v>
-      </c>
-      <c r="V10" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>dentro.de</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+    <row r="11" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46">
         <v>11</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C11" s="42" t="str">
+      <c r="C11" s="41" t="str">
         <f t="shared" si="7"/>
         <v>localizado.em</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="12" t="str">
@@ -3307,76 +3376,76 @@
         <v>predial</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="25" t="s">
+      <c r="J11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="25" t="s">
+      <c r="L11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P11" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q11" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q11" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R11" s="18" t="str">
+      <c r="R11" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.localizado.em    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S11" s="18" t="str">
+      <c r="S11" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  localizado.em</v>
       </c>
-      <c r="T11" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="26" t="str">
+      <c r="T11" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.localizado.em</v>
+      </c>
+      <c r="V11" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.localizado.em  &gt;  localizado.em</v>
-      </c>
-      <c r="V11" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>localizado.em</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+    <row r="12" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46">
         <v>12</v>
       </c>
-      <c r="B12" s="34" t="str">
+      <c r="B12" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C12" s="42" t="str">
+      <c r="C12" s="41" t="str">
         <f t="shared" si="7"/>
         <v>acima.de</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="12" t="str">
@@ -3384,76 +3453,76 @@
         <v>predial</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="25" t="s">
+      <c r="L12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q12" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q12" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R12" s="18" t="str">
+      <c r="R12" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.acima.de    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S12" s="18" t="str">
+      <c r="S12" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  acima.de</v>
       </c>
-      <c r="T12" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U12" s="26" t="str">
+      <c r="T12" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.acima.de</v>
+      </c>
+      <c r="V12" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.acima.de  &gt;  acima.de</v>
-      </c>
-      <c r="V12" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>acima.de</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+    <row r="13" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
         <v>13</v>
       </c>
-      <c r="B13" s="34" t="str">
+      <c r="B13" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C13" s="42" t="str">
+      <c r="C13" s="41" t="str">
         <f t="shared" si="7"/>
         <v>embaixo.de</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="str">
@@ -3461,76 +3530,76 @@
         <v>predial</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" s="25" t="s">
+      <c r="L13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q13" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q13" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R13" s="18" t="str">
+      <c r="R13" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.embaixo.de    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S13" s="18" t="str">
+      <c r="S13" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  embaixo.de</v>
       </c>
-      <c r="T13" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="26" t="str">
+      <c r="T13" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.embaixo.de</v>
+      </c>
+      <c r="V13" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.embaixo.de  &gt;  embaixo.de</v>
-      </c>
-      <c r="V13" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>embaixo.de</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+    <row r="14" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46">
         <v>14</v>
       </c>
-      <c r="B14" s="34" t="str">
+      <c r="B14" s="33" t="str">
         <f t="shared" ref="B14" si="11">E14</f>
         <v>predial</v>
       </c>
-      <c r="C14" s="42" t="str">
+      <c r="C14" s="41" t="str">
         <f t="shared" si="7"/>
         <v>frente.a</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="12" t="str">
@@ -3538,76 +3607,76 @@
         <v>predial</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="K14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q14" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q14" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R14" s="18" t="str">
+      <c r="R14" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.frente.a    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S14" s="18" t="str">
+      <c r="S14" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  frente.a</v>
       </c>
-      <c r="T14" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U14" s="26" t="str">
+      <c r="T14" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.frente.a</v>
+      </c>
+      <c r="V14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.frente.a  &gt;  frente.a</v>
-      </c>
-      <c r="V14" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>frente.a</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+    <row r="15" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46">
         <v>15</v>
       </c>
-      <c r="B15" s="34" t="str">
+      <c r="B15" s="33" t="str">
         <f t="shared" si="8"/>
         <v>predial</v>
       </c>
-      <c r="C15" s="42" t="str">
+      <c r="C15" s="41" t="str">
         <f t="shared" si="7"/>
         <v>adjacente.a</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="12" t="str">
@@ -3615,153 +3684,152 @@
         <v>predial</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="K15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P15" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q15" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q15" s="11" t="str">
-        <f t="shared" si="6"/>
         <v>Limite</v>
       </c>
-      <c r="R15" s="18" t="str">
+      <c r="R15" s="17" t="str">
         <f t="shared" si="1"/>
         <v>Propriedade: é.adjacente.a    Domínio: BIM     Range: Limite</v>
       </c>
-      <c r="S15" s="18" t="str">
+      <c r="S15" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  adjacente.a</v>
       </c>
-      <c r="T15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U15" s="26" t="str">
+      <c r="T15" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  é.adjacente.a</v>
+      </c>
+      <c r="V15" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  é.adjacente.a  &gt;  adjacente.a</v>
-      </c>
-      <c r="V15" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>adjacente.a</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+    <row r="16" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
         <v>16</v>
       </c>
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="27" t="str">
         <f>E16</f>
         <v>de.localização</v>
       </c>
-      <c r="C16" s="40" t="str">
+      <c r="C16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>regional</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="29" t="str">
+      <c r="E16" s="28" t="str">
         <f>F2</f>
         <v>de.localização</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O16" s="25" t="s">
+      <c r="F16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P16" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>BIM</v>
       </c>
-      <c r="Q16" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R16" s="18" t="str">
+      <c r="Q16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: regional    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S16" s="18" t="str">
+        <v>Propriedade: regional    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S16" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  regional</v>
       </c>
-      <c r="T16" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="26" t="str">
+      <c r="T16" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  regional</v>
+      </c>
+      <c r="V16" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  regional  &gt;  regional</v>
-      </c>
-      <c r="V16" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>regional</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+    <row r="17" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46">
         <v>17</v>
       </c>
-      <c r="B17" s="34" t="str">
+      <c r="B17" s="33" t="str">
         <f>E17</f>
         <v>regional</v>
       </c>
-      <c r="C17" s="42" t="str">
+      <c r="C17" s="41" t="str">
         <f t="shared" si="7"/>
         <v>continente</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="12" t="str">
@@ -3769,76 +3837,76 @@
         <v>regional</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O17" s="25" t="s">
+      <c r="H17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P17" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q17" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q17" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R17" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R17" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.continente    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S17" s="18" t="str">
+        <v>Propriedade: tem.continente    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S17" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  continente</v>
       </c>
-      <c r="T17" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U17" s="26" t="str">
+      <c r="T17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.continente</v>
+      </c>
+      <c r="V17" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.continente  &gt;  continente</v>
-      </c>
-      <c r="V17" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>continente</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+    <row r="18" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46">
         <v>18</v>
       </c>
-      <c r="B18" s="34" t="str">
+      <c r="B18" s="33" t="str">
         <f t="shared" ref="B18:B19" si="12">E18</f>
         <v>regional</v>
       </c>
-      <c r="C18" s="42" t="str">
+      <c r="C18" s="41" t="str">
         <f t="shared" si="7"/>
         <v>país</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="12" t="str">
@@ -3846,76 +3914,76 @@
         <v>regional</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="25" t="s">
+      <c r="H18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P18" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q18" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q18" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R18" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R18" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.país    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S18" s="18" t="str">
+        <v>Propriedade: tem.país    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S18" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  país</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U18" s="26" t="str">
+      <c r="T18" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U18" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.país</v>
+      </c>
+      <c r="V18" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.país  &gt;  país</v>
-      </c>
-      <c r="V18" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>país</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+    <row r="19" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
         <v>19</v>
       </c>
-      <c r="B19" s="34" t="str">
+      <c r="B19" s="33" t="str">
         <f t="shared" si="12"/>
         <v>regional</v>
       </c>
-      <c r="C19" s="42" t="str">
+      <c r="C19" s="41" t="str">
         <f t="shared" si="7"/>
         <v>estado</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="12" t="str">
@@ -3923,153 +3991,153 @@
         <v>regional</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="25" t="s">
+      <c r="H19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P19" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q19" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q19" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R19" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.estado    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S19" s="18" t="str">
+        <v>Propriedade: tem.estado    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S19" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  estado</v>
       </c>
-      <c r="T19" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U19" s="26" t="str">
+      <c r="T19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U19" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.estado</v>
+      </c>
+      <c r="V19" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.estado  &gt;  estado</v>
-      </c>
-      <c r="V19" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>estado</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+    <row r="20" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46">
         <v>20</v>
       </c>
-      <c r="B20" s="28" t="str">
+      <c r="B20" s="27" t="str">
         <f>E20</f>
         <v>de.localização</v>
       </c>
-      <c r="C20" s="40" t="str">
+      <c r="C20" s="39" t="str">
         <f t="shared" si="0"/>
         <v>urbana</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="29" t="str">
+      <c r="E20" s="28" t="str">
         <f>F2</f>
         <v>de.localização</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O20" s="25" t="s">
+      <c r="F20" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P20" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q20" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q20" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R20" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R20" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: urbana    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S20" s="18" t="str">
+        <v>Propriedade: urbana    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S20" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  urbana</v>
       </c>
-      <c r="T20" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20" s="26" t="str">
+      <c r="T20" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  urbana</v>
+      </c>
+      <c r="V20" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  urbana  &gt;  urbana</v>
-      </c>
-      <c r="V20" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>urbana</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+    <row r="21" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="46">
         <v>21</v>
       </c>
-      <c r="B21" s="34" t="str">
+      <c r="B21" s="33" t="str">
         <f>E21</f>
         <v>urbana</v>
       </c>
-      <c r="C21" s="42" t="str">
+      <c r="C21" s="41" t="str">
         <f t="shared" ref="C21:C26" si="13">MID(F21,FIND(".",F21,1)+1,100)</f>
         <v>cidade</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="12" t="str">
@@ -4077,76 +4145,76 @@
         <v>urbana</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21" s="25" t="s">
+      <c r="H21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P21" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q21" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q21" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R21" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R21" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.cidade    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S21" s="18" t="str">
+        <v>Propriedade: tem.cidade    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S21" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  cidade</v>
       </c>
-      <c r="T21" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U21" s="26" t="str">
+      <c r="T21" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.cidade</v>
+      </c>
+      <c r="V21" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.cidade  &gt;  cidade</v>
-      </c>
-      <c r="V21" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>cidade</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+    <row r="22" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46">
         <v>22</v>
       </c>
-      <c r="B22" s="34" t="str">
+      <c r="B22" s="33" t="str">
         <f t="shared" ref="B22:B26" si="14">E22</f>
         <v>urbana</v>
       </c>
-      <c r="C22" s="42" t="str">
+      <c r="C22" s="41" t="str">
         <f t="shared" si="13"/>
         <v>bairro</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="12" t="str">
@@ -4154,153 +4222,153 @@
         <v>urbana</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N22" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22" s="25" t="s">
+      <c r="H22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P22" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q22" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q22" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R22" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R22" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.bairro    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S22" s="18" t="str">
+        <v>Propriedade: tem.bairro    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S22" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  bairro</v>
       </c>
-      <c r="T22" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U22" s="26" t="str">
+      <c r="T22" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U22" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.bairro</v>
+      </c>
+      <c r="V22" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.bairro  &gt;  bairro</v>
-      </c>
-      <c r="V22" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>bairro</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+    <row r="23" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="46">
         <v>23</v>
       </c>
-      <c r="B23" s="34" t="str">
+      <c r="B23" s="33" t="str">
         <f t="shared" si="14"/>
         <v>urbana</v>
       </c>
-      <c r="C23" s="42" t="str">
+      <c r="C23" s="41" t="str">
         <f t="shared" si="13"/>
         <v>código.bairro</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ref="E23:E26" si="15">E22</f>
+        <f t="shared" ref="E23:E27" si="15">E22</f>
         <v>urbana</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23" s="25" t="s">
+      <c r="H23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P23" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q23" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q23" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R23" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R23" s="17" t="str">
         <f t="shared" ref="R23:R26" si="16">_xlfn.CONCAT("Propriedade: ",  F23, "    Domínio: ", P23, "     Range: ", Q23)</f>
-        <v>Propriedade: tem.código.bairro    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S23" s="18" t="str">
+        <v>Propriedade: tem.código.bairro    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S23" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  código.bairro</v>
       </c>
-      <c r="T23" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U23" s="26" t="str">
+      <c r="T23" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U23" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.código.bairro</v>
+      </c>
+      <c r="V23" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código.bairro  &gt;  código.bairro</v>
-      </c>
-      <c r="V23" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>código.bairro</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+    <row r="24" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
         <v>24</v>
       </c>
-      <c r="B24" s="34" t="str">
+      <c r="B24" s="33" t="str">
         <f t="shared" si="14"/>
         <v>urbana</v>
       </c>
-      <c r="C24" s="42" t="str">
+      <c r="C24" s="41" t="str">
         <f t="shared" si="13"/>
         <v>ra</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="12" t="str">
@@ -4308,76 +4376,76 @@
         <v>urbana</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="25" t="s">
+      <c r="H24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P24" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q24" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q24" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R24" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R24" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Propriedade: tem.ra    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S24" s="18" t="str">
+        <v>Propriedade: tem.ra    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S24" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  ra</v>
       </c>
-      <c r="T24" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U24" s="26" t="str">
+      <c r="T24" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.ra</v>
+      </c>
+      <c r="V24" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.ra  &gt;  ra</v>
-      </c>
-      <c r="V24" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>ra</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
+    <row r="25" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="46">
         <v>25</v>
       </c>
-      <c r="B25" s="34" t="str">
+      <c r="B25" s="33" t="str">
         <f t="shared" si="14"/>
         <v>urbana</v>
       </c>
-      <c r="C25" s="42" t="str">
+      <c r="C25" s="41" t="str">
         <f t="shared" si="13"/>
         <v>código.ra</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="12" t="str">
@@ -4385,76 +4453,76 @@
         <v>urbana</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="25" t="s">
+      <c r="H25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P25" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q25" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q25" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R25" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R25" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Propriedade: tem.código.ra    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S25" s="18" t="str">
+        <v>Propriedade: tem.código.ra    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S25" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  código.ra</v>
       </c>
-      <c r="T25" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U25" s="26" t="str">
+      <c r="T25" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U25" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.código.ra</v>
+      </c>
+      <c r="V25" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.código.ra  &gt;  código.ra</v>
-      </c>
-      <c r="V25" s="26" t="str">
-        <f t="shared" si="4"/>
         <v>código.ra</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+    <row r="26" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="46">
         <v>26</v>
       </c>
-      <c r="B26" s="34" t="str">
+      <c r="B26" s="33" t="str">
         <f t="shared" si="14"/>
         <v>urbana</v>
       </c>
-      <c r="C26" s="42" t="str">
+      <c r="C26" s="41" t="str">
         <f t="shared" si="13"/>
         <v>ap</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E26" s="12" t="str">
@@ -4462,66 +4530,143 @@
         <v>urbana</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26" s="25" t="s">
+      <c r="H26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P26" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q26" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q26" s="11" t="str">
-        <f t="shared" si="6"/>
-        <v>Limite</v>
-      </c>
-      <c r="R26" s="18" t="str">
+        <v>Urbano</v>
+      </c>
+      <c r="R26" s="17" t="str">
         <f t="shared" si="16"/>
-        <v>Propriedade: tem.ap    Domínio: BIM     Range: Limite</v>
-      </c>
-      <c r="S26" s="18" t="str">
+        <v>Propriedade: tem.ap    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S26" s="17" t="str">
         <f t="shared" si="2"/>
         <v>Valor:  ap</v>
       </c>
-      <c r="T26" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="U26" s="26" t="str">
+      <c r="T26" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.ap</v>
+      </c>
+      <c r="V26" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>Refere-se a propriedade  tem.ap  &gt;  ap</v>
-      </c>
-      <c r="V26" s="26" t="str">
+        <v>ap</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="46">
+        <v>27</v>
+      </c>
+      <c r="B27" s="33" t="str">
+        <f t="shared" ref="B27" si="17">E27</f>
+        <v>urbana</v>
+      </c>
+      <c r="C27" s="41" t="str">
+        <f t="shared" ref="C27" si="18">MID(F27,FIND(".",F27,1)+1,100)</f>
+        <v>descrição</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f t="shared" si="15"/>
+        <v>urbana</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>ap</v>
+        <v>BIM</v>
+      </c>
+      <c r="Q27" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Urbano</v>
+      </c>
+      <c r="R27" s="17" t="str">
+        <f t="shared" ref="R27" si="19">_xlfn.CONCAT("Propriedade: ",  F27, "    Domínio: ", P27, "     Range: ", Q27)</f>
+        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S27" s="17" t="str">
+        <f t="shared" ref="S27" si="20">_xlfn.CONCAT("Valor:  ", C27)</f>
+        <v>Valor:  descrição</v>
+      </c>
+      <c r="T27" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Refere-se à propriedade  tem.descrição</v>
+      </c>
+      <c r="V27" s="25" t="str">
+        <f t="shared" ref="V27" si="21">C27</f>
+        <v>descrição</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E15 B2:B26">
+  <conditionalFormatting sqref="D2:E15 B2:B27">
     <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -4536,7 +4681,7 @@
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T26">
+  <conditionalFormatting sqref="T2:T27">
     <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -4554,83 +4699,83 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="19" customWidth="1"/>
-    <col min="2" max="10" width="5.6640625" style="13"/>
-    <col min="11" max="16384" width="5.6640625" style="15"/>
+    <col min="1" max="1" width="2.7109375" style="18" customWidth="1"/>
+    <col min="2" max="10" width="5.7109375" style="13"/>
+    <col min="11" max="16384" width="5.7109375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="29">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>79</v>
-      </c>
     </row>
-    <row r="2" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="29">
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -4694,8 +4839,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+    <row r="3" spans="1:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
         <v>3</v>
       </c>
       <c r="B3" s="10" t="s">

--- a/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
+++ b/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Rio_de_Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430FCCC0-8E58-49D5-BAC1-B47EDBD0FB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2578991-5E50-4DED-8210-FD9F4B214302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="780" windowWidth="28605" windowHeight="10125" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="23" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="124">
   <si>
     <t>Lote</t>
   </si>
@@ -294,18 +294,6 @@
   </si>
   <si>
     <t>tem.bairro</t>
-  </si>
-  <si>
-    <t>tem.código.bairro</t>
-  </si>
-  <si>
-    <t>tem.ra</t>
-  </si>
-  <si>
-    <t>tem.código.ra</t>
-  </si>
-  <si>
-    <t>tem.ap</t>
   </si>
   <si>
     <t>BIM</t>
@@ -441,6 +429,21 @@
   </si>
   <si>
     <t>De.Ordem</t>
+  </si>
+  <si>
+    <t>tem.número</t>
+  </si>
+  <si>
+    <t>tem.RA</t>
+  </si>
+  <si>
+    <t>tem.AP</t>
+  </si>
+  <si>
+    <t>tem.código.RA</t>
+  </si>
+  <si>
+    <t>de.Identificação</t>
   </si>
 </sst>
 </file>
@@ -825,17 +828,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -1324,16 +1321,16 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>30</v>
@@ -1348,7 +1345,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
@@ -1383,7 +1380,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="37" t="s">
         <v>31</v>
@@ -1392,7 +1389,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>40</v>
@@ -1433,13 +1430,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Continente</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R2" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S2" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T2" s="6" t="str">
         <f t="shared" ref="T2" si="3">_xlfn.CONCAT("key_",A2)</f>
@@ -1451,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>31</v>
@@ -1460,10 +1457,10 @@
         <v>39</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>10</v>
@@ -1501,13 +1498,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - SubContinente</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T3" s="6" t="str">
         <f t="shared" ref="T3:T17" si="9">_xlfn.CONCAT("key_",A3)</f>
@@ -1519,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>31</v>
@@ -1528,7 +1525,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>25</v>
@@ -1569,13 +1566,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - País</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T4" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1587,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>31</v>
@@ -1596,7 +1593,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>24</v>
@@ -1637,13 +1634,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Estado</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1655,7 +1652,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>31</v>
@@ -1664,7 +1661,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>35</v>
@@ -1705,13 +1702,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Cidade</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S6" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1723,7 +1720,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>31</v>
@@ -1773,13 +1770,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Area de Planejamento</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S7" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1791,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>31</v>
@@ -1841,13 +1838,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Região Administrativa</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T8" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1859,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -1909,13 +1906,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Bairro</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S9" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T9" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1927,7 +1924,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>31</v>
@@ -1977,13 +1974,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Quadra</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R10" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T10" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1995,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -2045,13 +2042,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Lote</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R11" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S11" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T11" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2063,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>31</v>
@@ -2072,7 +2069,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
@@ -2113,13 +2110,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Prédio</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R12" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S12" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T12" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2131,7 +2128,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
@@ -2140,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
@@ -2181,13 +2178,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Bloco</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R13" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S13" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T13" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2199,7 +2196,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>31</v>
@@ -2208,7 +2205,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -2249,13 +2246,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Edícula</v>
       </c>
       <c r="Q14" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R14" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T14" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2267,13 +2264,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>34</v>
@@ -2317,13 +2314,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Ambiente</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R15" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S15" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T15" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2335,13 +2332,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>34</v>
@@ -2385,13 +2382,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Setor</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S16" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T16" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2403,13 +2400,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>34</v>
@@ -2453,13 +2450,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Divisão</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S17" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T17" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2471,19 +2468,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>10</v>
@@ -2521,13 +2518,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Núcleo</v>
       </c>
       <c r="Q18" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="R18" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S18" s="43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T18" s="6" t="str">
         <f t="shared" ref="T18" si="13">_xlfn.CONCAT("key_",A18)</f>
@@ -2537,23 +2534,23 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F18">
-    <cfRule type="duplicateValues" dxfId="15" priority="3175"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3176"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3175"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3176"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="216"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="239"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="290"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="704"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="708"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="709"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="290"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="704"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="708"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="709"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="227"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="227"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:K1048576">
-    <cfRule type="cellIs" dxfId="5" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="305" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2564,21 +2561,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C24" sqref="C24"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="13" customWidth="1"/>
     <col min="3" max="3" width="8" style="13" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8" style="13" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" style="13" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="18" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="18" customWidth="1"/>
@@ -2591,10 +2588,10 @@
     <col min="15" max="15" width="7.85546875" style="18" customWidth="1"/>
     <col min="16" max="16" width="5.140625" style="13" customWidth="1"/>
     <col min="17" max="17" width="5.42578125" style="13" customWidth="1"/>
-    <col min="18" max="18" width="34" style="13" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" style="13" customWidth="1"/>
-    <col min="20" max="20" width="6.28515625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="23.140625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="32" style="13" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="13" customWidth="1"/>
+    <col min="21" max="21" width="17.42578125" style="13" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" style="13" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -2604,67 +2601,67 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>102</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2672,7 +2669,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="34" t="str">
         <f t="shared" ref="C2:C20" si="0">F2</f>
@@ -2682,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>45</v>
@@ -2715,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="21" t="s">
         <v>31</v>
@@ -2725,18 +2722,18 @@
         <v>Propriedade: de.localização    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S2" s="17" t="str">
-        <f t="shared" ref="S2:S26" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
+        <f t="shared" ref="S2:S23" si="2">_xlfn.CONCAT("Valor:  ", C2)</f>
         <v>Valor:  de.localização</v>
       </c>
       <c r="T2" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="25" t="str">
-        <f>_xlfn.CONCAT("Refere-se à propriedade  ",F2, )</f>
-        <v>Refere-se à propriedade  de.localização</v>
+        <f>_xlfn.CONCAT("Propriedade  ",F2, )</f>
+        <v>Propriedade  de.localização</v>
       </c>
       <c r="V2" s="25" t="str">
-        <f t="shared" ref="V2:V26" si="3">C2</f>
+        <f t="shared" ref="V2:V23" si="3">C2</f>
         <v>de.localização</v>
       </c>
     </row>
@@ -2790,11 +2787,11 @@
         <v>10</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3:P27" si="4">P2</f>
+        <f t="shared" ref="P3:P30" si="4">P2</f>
         <v>BIM</v>
       </c>
       <c r="Q3" s="11" t="str">
-        <f t="shared" ref="Q3:Q27" si="5">Q2</f>
+        <f t="shared" ref="Q3:Q30" si="5">Q2</f>
         <v>Limite</v>
       </c>
       <c r="R3" s="17" t="str">
@@ -2809,8 +2806,8 @@
         <v>10</v>
       </c>
       <c r="U3" s="25" t="str">
-        <f t="shared" ref="U3:U27" si="6">_xlfn.CONCAT("Refere-se à propriedade  ",F3, )</f>
-        <v>Refere-se à propriedade  predial</v>
+        <f t="shared" ref="U3:U30" si="6">_xlfn.CONCAT("Propriedade  ",F3, )</f>
+        <v>Propriedade  predial</v>
       </c>
       <c r="V3" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2887,7 +2884,7 @@
       </c>
       <c r="U4" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.ambiente</v>
+        <v>Propriedade  é.ambiente</v>
       </c>
       <c r="V4" s="25" t="str">
         <f t="shared" si="3"/>
@@ -2964,7 +2961,7 @@
       </c>
       <c r="U5" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.divisão</v>
+        <v>Propriedade  é.divisão</v>
       </c>
       <c r="V5" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3041,7 +3038,7 @@
       </c>
       <c r="U6" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.zona</v>
+        <v>Propriedade  é.zona</v>
       </c>
       <c r="V6" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3118,7 +3115,7 @@
       </c>
       <c r="U7" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.agrupado.com</v>
+        <v>Propriedade  é.agrupado.com</v>
       </c>
       <c r="V7" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3195,7 +3192,7 @@
       </c>
       <c r="U8" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.setor</v>
+        <v>Propriedade  é.setor</v>
       </c>
       <c r="V8" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3272,7 +3269,7 @@
       </c>
       <c r="U9" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.núcleo</v>
+        <v>Propriedade  é.núcleo</v>
       </c>
       <c r="V9" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3349,7 +3346,7 @@
       </c>
       <c r="U10" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.dentro.de</v>
+        <v>Propriedade  é.dentro.de</v>
       </c>
       <c r="V10" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3426,7 +3423,7 @@
       </c>
       <c r="U11" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.localizado.em</v>
+        <v>Propriedade  é.localizado.em</v>
       </c>
       <c r="V11" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3503,7 +3500,7 @@
       </c>
       <c r="U12" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.acima.de</v>
+        <v>Propriedade  é.acima.de</v>
       </c>
       <c r="V12" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3580,7 +3577,7 @@
       </c>
       <c r="U13" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.embaixo.de</v>
+        <v>Propriedade  é.embaixo.de</v>
       </c>
       <c r="V13" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3657,7 +3654,7 @@
       </c>
       <c r="U14" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.frente.a</v>
+        <v>Propriedade  é.frente.a</v>
       </c>
       <c r="V14" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3734,7 +3731,7 @@
       </c>
       <c r="U15" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  é.adjacente.a</v>
+        <v>Propriedade  é.adjacente.a</v>
       </c>
       <c r="V15" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3810,7 +3807,7 @@
       </c>
       <c r="U16" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  regional</v>
+        <v>Propriedade  regional</v>
       </c>
       <c r="V16" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3887,7 +3884,7 @@
       </c>
       <c r="U17" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.continente</v>
+        <v>Propriedade  tem.continente</v>
       </c>
       <c r="V17" s="25" t="str">
         <f t="shared" si="3"/>
@@ -3964,7 +3961,7 @@
       </c>
       <c r="U18" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.país</v>
+        <v>Propriedade  tem.país</v>
       </c>
       <c r="V18" s="25" t="str">
         <f t="shared" si="3"/>
@@ -4041,7 +4038,7 @@
       </c>
       <c r="U19" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.estado</v>
+        <v>Propriedade  tem.estado</v>
       </c>
       <c r="V19" s="25" t="str">
         <f t="shared" si="3"/>
@@ -4118,7 +4115,7 @@
       </c>
       <c r="U20" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  urbana</v>
+        <v>Propriedade  urbana</v>
       </c>
       <c r="V20" s="25" t="str">
         <f t="shared" si="3"/>
@@ -4134,7 +4131,7 @@
         <v>urbana</v>
       </c>
       <c r="C21" s="41" t="str">
-        <f t="shared" ref="C21:C26" si="13">MID(F21,FIND(".",F21,1)+1,100)</f>
+        <f t="shared" ref="C21:C23" si="13">MID(F21,FIND(".",F21,1)+1,100)</f>
         <v>cidade</v>
       </c>
       <c r="D21" s="36" t="s">
@@ -4195,7 +4192,7 @@
       </c>
       <c r="U21" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.cidade</v>
+        <v>Propriedade  tem.cidade</v>
       </c>
       <c r="V21" s="25" t="str">
         <f t="shared" si="3"/>
@@ -4207,7 +4204,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="33" t="str">
-        <f t="shared" ref="B22:B26" si="14">E22</f>
+        <f t="shared" ref="B22:B24" si="14">E22</f>
         <v>urbana</v>
       </c>
       <c r="C22" s="41" t="str">
@@ -4272,7 +4269,7 @@
       </c>
       <c r="U22" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.bairro</v>
+        <v>Propriedade  tem.bairro</v>
       </c>
       <c r="V22" s="25" t="str">
         <f t="shared" si="3"/>
@@ -4289,17 +4286,17 @@
       </c>
       <c r="C23" s="41" t="str">
         <f t="shared" si="13"/>
-        <v>código.bairro</v>
+        <v>número</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ref="E23:E27" si="15">E22</f>
+        <f t="shared" ref="E23:E24" si="15">E22</f>
         <v>urbana</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>33</v>
@@ -4337,23 +4334,23 @@
         <v>Urbano</v>
       </c>
       <c r="R23" s="17" t="str">
-        <f t="shared" ref="R23:R26" si="16">_xlfn.CONCAT("Propriedade: ",  F23, "    Domínio: ", P23, "     Range: ", Q23)</f>
-        <v>Propriedade: tem.código.bairro    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R23" si="16">_xlfn.CONCAT("Propriedade: ",  F23, "    Domínio: ", P23, "     Range: ", Q23)</f>
+        <v>Propriedade: tem.número    Domínio: BIM     Range: Urbano</v>
       </c>
       <c r="S23" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  código.bairro</v>
+        <v>Valor:  número</v>
       </c>
       <c r="T23" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U23" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.código.bairro</v>
+        <v>Propriedade  tem.número</v>
       </c>
       <c r="V23" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>código.bairro</v>
+        <v>número</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4365,8 +4362,8 @@
         <v>urbana</v>
       </c>
       <c r="C24" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v>ra</v>
+        <f t="shared" ref="C24" si="17">MID(F24,FIND(".",F24,1)+1,100)</f>
+        <v>descrição</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>4</v>
@@ -4376,7 +4373,7 @@
         <v>urbana</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>33</v>
@@ -4414,72 +4411,70 @@
         <v>Urbano</v>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Propriedade: tem.ra    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R24:R27" si="18">_xlfn.CONCAT("Propriedade: ",  F24, "    Domínio: ", P24, "     Range: ", Q24)</f>
+        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
       </c>
       <c r="S24" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Valor:  ra</v>
+        <f t="shared" ref="S24:S27" si="19">_xlfn.CONCAT("Valor:  ", C24)</f>
+        <v>Valor:  descrição</v>
       </c>
       <c r="T24" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U24" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.ra</v>
+        <v>Propriedade  tem.descrição</v>
       </c>
       <c r="V24" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>ra</v>
+        <f t="shared" ref="V24:V27" si="20">C24</f>
+        <v>descrição</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>25</v>
       </c>
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>urbana</v>
-      </c>
-      <c r="C25" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v>código.ra</v>
-      </c>
-      <c r="D25" s="36" t="s">
+      <c r="B25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="34" t="str">
+        <f t="shared" ref="C25" si="21">F25</f>
+        <v>de.Identificação</v>
+      </c>
+      <c r="D25" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>urbana</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="24" t="s">
+      <c r="E25" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="23" t="s">
         <v>10</v>
       </c>
       <c r="P25" s="9" t="str">
@@ -4491,49 +4486,49 @@
         <v>Urbano</v>
       </c>
       <c r="R25" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Propriedade: tem.código.ra    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="18"/>
+        <v>Propriedade: de.Identificação    Domínio: BIM     Range: Urbano</v>
       </c>
       <c r="S25" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Valor:  código.ra</v>
+        <f t="shared" si="19"/>
+        <v>Valor:  de.Identificação</v>
       </c>
       <c r="T25" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U25" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.código.ra</v>
+        <v>Propriedade  de.Identificação</v>
       </c>
       <c r="V25" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>código.ra</v>
+        <f t="shared" si="20"/>
+        <v>de.Identificação</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>26</v>
       </c>
-      <c r="B26" s="33" t="str">
-        <f t="shared" si="14"/>
+      <c r="B26" s="27" t="str">
+        <f>E26</f>
+        <v>de.Identificação</v>
+      </c>
+      <c r="C26" s="39" t="str">
+        <f t="shared" ref="C26" si="22">F26</f>
         <v>urbana</v>
       </c>
-      <c r="C26" s="41" t="str">
-        <f t="shared" si="13"/>
-        <v>ap</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>urbana</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>33</v>
+      <c r="E26" s="28" t="str">
+        <f>F25</f>
+        <v>de.Identificação</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>10</v>
@@ -4568,23 +4563,23 @@
         <v>Urbano</v>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>Propriedade: tem.ap    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="18"/>
+        <v>Propriedade: urbana    Domínio: BIM     Range: Urbano</v>
       </c>
       <c r="S26" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Valor:  ap</v>
+        <f t="shared" si="19"/>
+        <v>Valor:  urbana</v>
       </c>
       <c r="T26" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U26" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.ap</v>
+        <v>Propriedade  urbana</v>
       </c>
       <c r="V26" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>ap</v>
+        <f t="shared" si="20"/>
+        <v>urbana</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4592,22 +4587,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27" si="17">E27</f>
+        <f t="shared" ref="B27" si="23">E27</f>
         <v>urbana</v>
       </c>
       <c r="C27" s="41" t="str">
-        <f t="shared" ref="C27" si="18">MID(F27,FIND(".",F27,1)+1,100)</f>
-        <v>descrição</v>
+        <f t="shared" ref="C27" si="24">MID(F27,FIND(".",F27,1)+1,100)</f>
+        <v>AP</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f>F26</f>
         <v>urbana</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>33</v>
@@ -4645,44 +4640,270 @@
         <v>Urbano</v>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" ref="R27" si="19">_xlfn.CONCAT("Propriedade: ",  F27, "    Domínio: ", P27, "     Range: ", Q27)</f>
-        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="18"/>
+        <v>Propriedade: tem.AP    Domínio: BIM     Range: Urbano</v>
       </c>
       <c r="S27" s="17" t="str">
-        <f t="shared" ref="S27" si="20">_xlfn.CONCAT("Valor:  ", C27)</f>
-        <v>Valor:  descrição</v>
+        <f t="shared" si="19"/>
+        <v>Valor:  AP</v>
       </c>
       <c r="T27" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U27" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Refere-se à propriedade  tem.descrição</v>
+        <v>Propriedade  tem.AP</v>
       </c>
       <c r="V27" s="25" t="str">
-        <f t="shared" ref="V27" si="21">C27</f>
+        <f t="shared" si="20"/>
+        <v>AP</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46">
+        <v>28</v>
+      </c>
+      <c r="B28" s="33" t="str">
+        <f t="shared" ref="B28:B29" si="25">E28</f>
+        <v>urbana</v>
+      </c>
+      <c r="C28" s="41" t="str">
+        <f t="shared" ref="C28:C29" si="26">MID(F28,FIND(".",F28,1)+1,100)</f>
+        <v>RA</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="12" t="str">
+        <f>E27</f>
+        <v>urbana</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q28" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Urbano</v>
+      </c>
+      <c r="R28" s="17" t="str">
+        <f t="shared" ref="R28:R29" si="27">_xlfn.CONCAT("Propriedade: ",  F28, "    Domínio: ", P28, "     Range: ", Q28)</f>
+        <v>Propriedade: tem.RA    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S28" s="17" t="str">
+        <f t="shared" ref="S28:S29" si="28">_xlfn.CONCAT("Valor:  ", C28)</f>
+        <v>Valor:  RA</v>
+      </c>
+      <c r="T28" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Propriedade  tem.RA</v>
+      </c>
+      <c r="V28" s="25" t="str">
+        <f t="shared" ref="V28:V29" si="29">C28</f>
+        <v>RA</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="46">
+        <v>29</v>
+      </c>
+      <c r="B29" s="33" t="str">
+        <f t="shared" si="25"/>
+        <v>urbana</v>
+      </c>
+      <c r="C29" s="41" t="str">
+        <f t="shared" si="26"/>
+        <v>código.RA</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f>E28</f>
+        <v>urbana</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q29" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Urbano</v>
+      </c>
+      <c r="R29" s="17" t="str">
+        <f t="shared" si="27"/>
+        <v>Propriedade: tem.código.RA    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S29" s="17" t="str">
+        <f t="shared" si="28"/>
+        <v>Valor:  código.RA</v>
+      </c>
+      <c r="T29" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U29" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Propriedade  tem.código.RA</v>
+      </c>
+      <c r="V29" s="25" t="str">
+        <f t="shared" si="29"/>
+        <v>código.RA</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
+        <v>30</v>
+      </c>
+      <c r="B30" s="33" t="str">
+        <f t="shared" ref="B30" si="30">E30</f>
+        <v>urbana</v>
+      </c>
+      <c r="C30" s="41" t="str">
+        <f t="shared" ref="C30" si="31">MID(F30,FIND(".",F30,1)+1,100)</f>
+        <v>descrição</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="12" t="str">
+        <f>E29</f>
+        <v>urbana</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM</v>
+      </c>
+      <c r="Q30" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Urbano</v>
+      </c>
+      <c r="R30" s="17" t="str">
+        <f t="shared" ref="R30" si="32">_xlfn.CONCAT("Propriedade: ",  F30, "    Domínio: ", P30, "     Range: ", Q30)</f>
+        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
+      </c>
+      <c r="S30" s="17" t="str">
+        <f t="shared" ref="S30" si="33">_xlfn.CONCAT("Valor:  ", C30)</f>
+        <v>Valor:  descrição</v>
+      </c>
+      <c r="T30" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>Propriedade  tem.descrição</v>
+      </c>
+      <c r="V30" s="25" t="str">
+        <f t="shared" ref="V30" si="34">C30</f>
         <v>descrição</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E15 B2:B27">
-    <cfRule type="cellIs" dxfId="4" priority="30" operator="equal">
+  <conditionalFormatting sqref="D2:E15 D25:E25 B2:B30">
+    <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:O1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+  <conditionalFormatting sqref="G1:O1048576 T2:T30">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q1 Q2:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T27">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
+++ b/Onto_Rio_de_Janeiro/Ontologia_V1_Rio_de_Janeiro_Classes_Propriedades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Rio_de_Janeiro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2578991-5E50-4DED-8210-FD9F4B214302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6478F170-3F41-4288-947D-477D73FD609C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="121">
   <si>
     <t>Lote</t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t>Transitive</t>
-  </si>
-  <si>
-    <t>Symmetric</t>
-  </si>
-  <si>
-    <t>Asymmetric</t>
   </si>
   <si>
     <t>Ambiente</t>
@@ -171,9 +165,6 @@
   </si>
   <si>
     <t>urbana</t>
-  </si>
-  <si>
-    <t>Reflexive</t>
   </si>
   <si>
     <t>predial</t>
@@ -685,7 +676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,6 +815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,7 +1281,7 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1302,14 +1296,14 @@
     <col min="8" max="9" width="7.85546875" style="32" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" style="32" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" style="32" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="20" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="38.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" style="20" customWidth="1"/>
     <col min="18" max="18" width="4.85546875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" style="20" customWidth="1"/>
     <col min="20" max="20" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1321,31 +1315,31 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="31" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>106</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>3</v>
@@ -1380,19 +1374,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>10</v>
@@ -1413,7 +1407,7 @@
         <f>_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B2,"1.",""))</f>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="48" t="str">
         <f t="shared" ref="M2" si="0">_xlfn.CONCAT(SUBSTITUTE(C2,"."," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1430,13 +1424,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Continente</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R2" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S2" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T2" s="6" t="str">
         <f t="shared" ref="T2" si="3">_xlfn.CONCAT("key_",A2)</f>
@@ -1448,19 +1442,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>10</v>
@@ -1481,7 +1475,7 @@
         <f t="shared" ref="L3:L18" si="4">_xlfn.CONCAT("Conceito de: ", SUBSTITUTE(B3,"1.",""))</f>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="48" t="str">
         <f t="shared" ref="M3:M17" si="5">_xlfn.CONCAT(SUBSTITUTE(C3,"."," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1498,13 +1492,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - SubContinente</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S3" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T3" s="6" t="str">
         <f t="shared" ref="T3:T17" si="9">_xlfn.CONCAT("key_",A3)</f>
@@ -1516,19 +1510,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>10</v>
@@ -1549,7 +1543,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M4" s="3" t="str">
+      <c r="M4" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1566,13 +1560,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - País</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S4" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T4" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1584,19 +1578,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>10</v>
@@ -1617,7 +1611,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M5" s="3" t="str">
+      <c r="M5" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1634,13 +1628,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Estado</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S5" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T5" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1652,19 +1646,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>10</v>
@@ -1685,7 +1679,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M6" s="3" t="str">
+      <c r="M6" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1702,13 +1696,13 @@
         <v>Conceito de: BIM - Limite  - De Divisão  - Política  - Cidade</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S6" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T6" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1720,19 +1714,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>10</v>
@@ -1753,7 +1747,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M7" s="3" t="str">
+      <c r="M7" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1770,13 +1764,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Area de Planejamento</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S7" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T7" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1788,19 +1782,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>10</v>
@@ -1821,7 +1815,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M8" s="3" t="str">
+      <c r="M8" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1838,13 +1832,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Região Administrativa</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S8" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T8" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1856,16 +1850,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -1889,7 +1883,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M9" s="3" t="str">
+      <c r="M9" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1906,13 +1900,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Bairro</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S9" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T9" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1924,16 +1918,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
@@ -1957,7 +1951,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M10" s="3" t="str">
+      <c r="M10" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -1974,13 +1968,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Quadra</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R10" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S10" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T10" s="6" t="str">
         <f t="shared" si="9"/>
@@ -1992,16 +1986,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>0</v>
@@ -2025,7 +2019,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M11" s="3" t="str">
+      <c r="M11" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2042,13 +2036,13 @@
         <v>Conceito de: BIM - Limite  - De Zoneamento  - Urbano  - Lote</v>
       </c>
       <c r="Q11" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R11" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S11" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T11" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2060,16 +2054,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>19</v>
@@ -2093,7 +2087,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M12" s="3" t="str">
+      <c r="M12" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2110,13 +2104,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Prédio</v>
       </c>
       <c r="Q12" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R12" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S12" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T12" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2128,16 +2122,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>14</v>
@@ -2161,7 +2155,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M13" s="3" t="str">
+      <c r="M13" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2178,13 +2172,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Bloco</v>
       </c>
       <c r="Q13" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R13" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S13" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T13" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2196,16 +2190,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>17</v>
@@ -2229,7 +2223,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M14" s="3" t="str">
+      <c r="M14" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2246,13 +2240,13 @@
         <v>Conceito de: BIM - Limite  - De Construção  - Predial  - Edícula</v>
       </c>
       <c r="Q14" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R14" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S14" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T14" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2264,19 +2258,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>10</v>
@@ -2297,7 +2291,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M15" s="3" t="str">
+      <c r="M15" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2314,13 +2308,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Ambiente</v>
       </c>
       <c r="Q15" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R15" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S15" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T15" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2332,16 +2326,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>13</v>
@@ -2365,7 +2359,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M16" s="3" t="str">
+      <c r="M16" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2382,13 +2376,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Setor</v>
       </c>
       <c r="Q16" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S16" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T16" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2400,16 +2394,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>16</v>
@@ -2433,7 +2427,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M17" s="3" t="str">
+      <c r="M17" s="48" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2450,13 +2444,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Divisão</v>
       </c>
       <c r="Q17" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R17" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S17" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T17" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2468,19 +2462,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G18" s="14" t="s">
         <v>10</v>
@@ -2501,7 +2495,7 @@
         <f t="shared" si="4"/>
         <v>Conceito de: BIM</v>
       </c>
-      <c r="M18" s="3" t="str">
+      <c r="M18" s="48" t="str">
         <f t="shared" ref="M18" si="10">_xlfn.CONCAT(SUBSTITUTE(C18,"."," ")," ")</f>
         <v xml:space="preserve">Limite </v>
       </c>
@@ -2518,13 +2512,13 @@
         <v>Conceito de: BIM - Limite  - De Ordem  - Funcional  - Núcleo</v>
       </c>
       <c r="Q18" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R18" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S18" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="T18" s="6" t="str">
         <f t="shared" ref="T18" si="13">_xlfn.CONCAT("key_",A18)</f>
@@ -2561,12 +2555,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6B38C3-987C-42D5-BAB0-D66087DA7BA3}">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C24" sqref="C24"/>
-      <selection pane="bottomLeft" activeCell="V2" sqref="V1:V2"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2601,67 +2595,67 @@
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="N1" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P1" s="45" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="45" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2669,20 +2663,20 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="34" t="str">
-        <f t="shared" ref="C2:C20" si="0">F2</f>
+        <f t="shared" ref="C2:C19" si="0">F2</f>
         <v>de.localização</v>
       </c>
       <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>10</v>
@@ -2712,10 +2706,10 @@
         <v>10</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R2" s="17" t="str">
         <f t="shared" ref="R2:R22" si="1">_xlfn.CONCAT("Propriedade: ",  F2, "    Domínio: ", P2, "     Range: ", Q2)</f>
@@ -2757,7 +2751,7 @@
         <v>de.localização</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>10</v>
@@ -2787,11 +2781,11 @@
         <v>10</v>
       </c>
       <c r="P3" s="9" t="str">
-        <f t="shared" ref="P3:P30" si="4">P2</f>
+        <f t="shared" ref="P3:P29" si="4">P2</f>
         <v>BIM</v>
       </c>
       <c r="Q3" s="11" t="str">
-        <f t="shared" ref="Q3:Q30" si="5">Q2</f>
+        <f t="shared" ref="Q3:Q29" si="5">Q2</f>
         <v>Limite</v>
       </c>
       <c r="R3" s="17" t="str">
@@ -2806,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="U3" s="25" t="str">
-        <f t="shared" ref="U3:U30" si="6">_xlfn.CONCAT("Propriedade  ",F3, )</f>
+        <f t="shared" ref="U3:U29" si="6">_xlfn.CONCAT("Propriedade  ",F3, )</f>
         <v>Propriedade  predial</v>
       </c>
       <c r="V3" s="25" t="str">
@@ -2823,7 +2817,7 @@
         <v>predial</v>
       </c>
       <c r="C4" s="41" t="str">
-        <f t="shared" ref="C4:C19" si="7">MID(F4,FIND(".",F4,1)+1,100)</f>
+        <f t="shared" ref="C4:C18" si="7">MID(F4,FIND(".",F4,1)+1,100)</f>
         <v>ambiente</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -2834,7 +2828,7 @@
         <v>predial</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>10</v>
@@ -2896,7 +2890,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="33" t="str">
-        <f t="shared" ref="B5:B15" si="8">E5</f>
+        <f t="shared" ref="B5:B14" si="8">E5</f>
         <v>predial</v>
       </c>
       <c r="C5" s="41" t="str">
@@ -2911,7 +2905,7 @@
         <v>predial</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>10</v>
@@ -2984,11 +2978,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f t="shared" ref="E6:E13" si="9">E5</f>
+        <f t="shared" ref="E6:E8" si="9">E5</f>
         <v>predial</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>10</v>
@@ -3065,7 +3059,7 @@
         <v>predial</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>10</v>
@@ -3083,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="M7" s="24" t="s">
         <v>10</v>
@@ -3142,7 +3136,7 @@
         <v>predial</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>10</v>
@@ -3204,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="33" t="str">
-        <f t="shared" ref="B9:B10" si="10">E9</f>
+        <f t="shared" ref="B9" si="10">E9</f>
         <v>predial</v>
       </c>
       <c r="C9" s="41" t="str">
@@ -3219,7 +3213,7 @@
         <v>predial</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>10</v>
@@ -3281,22 +3275,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>predial</v>
       </c>
       <c r="C10" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>dentro.de</v>
+        <v>localizado.em</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>E8</f>
+        <f t="shared" ref="E10:E14" si="11">E8</f>
         <v>predial</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>10</v>
@@ -3311,7 +3305,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L10" s="24" t="s">
         <v>10</v>
@@ -3335,22 +3329,22 @@
       </c>
       <c r="R10" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.dentro.de    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: é.localizado.em    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S10" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  dentro.de</v>
+        <v>Valor:  localizado.em</v>
       </c>
       <c r="T10" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U10" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.dentro.de</v>
+        <v>Propriedade  é.localizado.em</v>
       </c>
       <c r="V10" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>dentro.de</v>
+        <v>localizado.em</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3363,17 +3357,17 @@
       </c>
       <c r="C11" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>localizado.em</v>
+        <v>acima.de</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>predial</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>10</v>
@@ -3382,13 +3376,13 @@
         <v>10</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>10</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L11" s="24" t="s">
         <v>10</v>
@@ -3412,22 +3406,22 @@
       </c>
       <c r="R11" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.localizado.em    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: é.acima.de    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S11" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  localizado.em</v>
+        <v>Valor:  acima.de</v>
       </c>
       <c r="T11" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U11" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.localizado.em</v>
+        <v>Propriedade  é.acima.de</v>
       </c>
       <c r="V11" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>localizado.em</v>
+        <v>acima.de</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3440,17 +3434,17 @@
       </c>
       <c r="C12" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>acima.de</v>
+        <v>embaixo.de</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>predial</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>10</v>
@@ -3465,7 +3459,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L12" s="24" t="s">
         <v>10</v>
@@ -3474,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="O12" s="24" t="s">
         <v>10</v>
@@ -3489,22 +3483,22 @@
       </c>
       <c r="R12" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.acima.de    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: é.embaixo.de    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S12" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  acima.de</v>
+        <v>Valor:  embaixo.de</v>
       </c>
       <c r="T12" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U12" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.acima.de</v>
+        <v>Propriedade  é.embaixo.de</v>
       </c>
       <c r="V12" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>acima.de</v>
+        <v>embaixo.de</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,22 +3506,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B13" si="12">E13</f>
         <v>predial</v>
       </c>
       <c r="C13" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>embaixo.de</v>
+        <v>frente.a</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>predial</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" s="24" t="s">
         <v>10</v>
@@ -3542,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="L13" s="24" t="s">
         <v>10</v>
@@ -3566,22 +3560,22 @@
       </c>
       <c r="R13" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.embaixo.de    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: é.frente.a    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S13" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  embaixo.de</v>
+        <v>Valor:  frente.a</v>
       </c>
       <c r="T13" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U13" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.embaixo.de</v>
+        <v>Propriedade  é.frente.a</v>
       </c>
       <c r="V13" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>embaixo.de</v>
+        <v>frente.a</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3589,22 +3583,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="33" t="str">
-        <f t="shared" ref="B14" si="11">E14</f>
+        <f t="shared" si="8"/>
         <v>predial</v>
       </c>
       <c r="C14" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>frente.a</v>
+        <v>adjacente.a</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f>E12</f>
+        <f t="shared" si="11"/>
         <v>predial</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>10</v>
@@ -3616,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>10</v>
@@ -3643,45 +3637,45 @@
       </c>
       <c r="R14" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.frente.a    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: é.adjacente.a    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S14" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  frente.a</v>
+        <v>Valor:  adjacente.a</v>
       </c>
       <c r="T14" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U14" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.frente.a</v>
+        <v>Propriedade  é.adjacente.a</v>
       </c>
       <c r="V14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>frente.a</v>
+        <v>adjacente.a</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46">
         <v>15</v>
       </c>
-      <c r="B15" s="33" t="str">
-        <f t="shared" si="8"/>
-        <v>predial</v>
-      </c>
-      <c r="C15" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v>adjacente.a</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="B15" s="27" t="str">
+        <f>E15</f>
+        <v>de.localização</v>
+      </c>
+      <c r="C15" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>regional</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="12" t="str">
-        <f>E13</f>
-        <v>predial</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>52</v>
+      <c r="E15" s="28" t="str">
+        <f>F2</f>
+        <v>de.localização</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>41</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>10</v>
@@ -3693,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>10</v>
@@ -3720,48 +3714,48 @@
       </c>
       <c r="R15" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: é.adjacente.a    Domínio: BIM     Range: Limite</v>
+        <v>Propriedade: regional    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S15" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  adjacente.a</v>
+        <v>Valor:  regional</v>
       </c>
       <c r="T15" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U15" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  é.adjacente.a</v>
+        <v>Propriedade  regional</v>
       </c>
       <c r="V15" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>adjacente.a</v>
+        <v>regional</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>16</v>
       </c>
-      <c r="B16" s="27" t="str">
+      <c r="B16" s="33" t="str">
         <f>E16</f>
-        <v>de.localização</v>
-      </c>
-      <c r="C16" s="39" t="str">
-        <f t="shared" si="0"/>
         <v>regional</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="C16" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>continente</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="28" t="str">
-        <f>F2</f>
-        <v>de.localização</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>10</v>
+      <c r="E16" s="12" t="str">
+        <f>F15</f>
+        <v>regional</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="H16" s="24" t="s">
         <v>10</v>
@@ -3791,27 +3785,28 @@
         <f t="shared" si="4"/>
         <v>BIM</v>
       </c>
-      <c r="Q16" s="21" t="s">
-        <v>36</v>
+      <c r="Q16" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Limite</v>
       </c>
       <c r="R16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: regional    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: tem.continente    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S16" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  regional</v>
+        <v>Valor:  continente</v>
       </c>
       <c r="T16" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U16" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  regional</v>
+        <v>Propriedade  tem.continente</v>
       </c>
       <c r="V16" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>regional</v>
+        <v>continente</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,25 +3814,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="33" t="str">
-        <f>E17</f>
+        <f t="shared" ref="B17:B18" si="13">E17</f>
         <v>regional</v>
       </c>
       <c r="C17" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>continente</v>
+        <v>país</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f>F16</f>
+        <f>E16</f>
         <v>regional</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" s="24" t="s">
         <v>10</v>
@@ -3869,26 +3864,26 @@
       </c>
       <c r="Q17" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R17" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.continente    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: tem.país    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S17" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  continente</v>
+        <v>Valor:  país</v>
       </c>
       <c r="T17" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U17" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.continente</v>
+        <v>Propriedade  tem.país</v>
       </c>
       <c r="V17" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>continente</v>
+        <v>país</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3896,12 +3891,12 @@
         <v>18</v>
       </c>
       <c r="B18" s="33" t="str">
-        <f t="shared" ref="B18:B19" si="12">E18</f>
+        <f t="shared" si="13"/>
         <v>regional</v>
       </c>
       <c r="C18" s="41" t="str">
         <f t="shared" si="7"/>
-        <v>país</v>
+        <v>estado</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>4</v>
@@ -3911,10 +3906,10 @@
         <v>regional</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>10</v>
@@ -3946,52 +3941,52 @@
       </c>
       <c r="Q18" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R18" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.país    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: tem.estado    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S18" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  país</v>
+        <v>Valor:  estado</v>
       </c>
       <c r="T18" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U18" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.país</v>
+        <v>Propriedade  tem.estado</v>
       </c>
       <c r="V18" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>país</v>
+        <v>estado</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46">
         <v>19</v>
       </c>
-      <c r="B19" s="33" t="str">
-        <f t="shared" si="12"/>
-        <v>regional</v>
-      </c>
-      <c r="C19" s="41" t="str">
-        <f t="shared" si="7"/>
-        <v>estado</v>
-      </c>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="27" t="str">
+        <f>E19</f>
+        <v>de.localização</v>
+      </c>
+      <c r="C19" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>urbana</v>
+      </c>
+      <c r="D19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="12" t="str">
-        <f>E18</f>
-        <v>regional</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>33</v>
+      <c r="E19" s="28" t="str">
+        <f>F2</f>
+        <v>de.localização</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>10</v>
@@ -4023,49 +4018,49 @@
       </c>
       <c r="Q19" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R19" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.estado    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: urbana    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S19" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Valor:  estado</v>
+        <v>Valor:  urbana</v>
       </c>
       <c r="T19" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U19" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.estado</v>
+        <v>Propriedade  urbana</v>
       </c>
       <c r="V19" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>estado</v>
+        <v>urbana</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46">
         <v>20</v>
       </c>
-      <c r="B20" s="27" t="str">
-        <f>E20</f>
-        <v>de.localização</v>
-      </c>
-      <c r="C20" s="39" t="str">
-        <f t="shared" si="0"/>
+      <c r="B20" s="33" t="str">
+        <f t="shared" ref="B20" si="14">E20</f>
         <v>urbana</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="41" t="str">
+        <f t="shared" ref="C20" si="15">MID(F20,FIND(".",F20,1)+1,100)</f>
+        <v>dentro.de</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="28" t="str">
-        <f>F2</f>
-        <v>de.localização</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>41</v>
+      <c r="E20" s="12" t="str">
+        <f>F19</f>
+        <v>urbana</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="G20" s="24" t="s">
         <v>10</v>
@@ -4074,7 +4069,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J20" s="24" t="s">
         <v>10</v>
@@ -4100,26 +4095,26 @@
       </c>
       <c r="Q20" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R20" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v>Propriedade: urbana    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R20" si="16">_xlfn.CONCAT("Propriedade: ",  F20, "    Domínio: ", P20, "     Range: ", Q20)</f>
+        <v>Propriedade: é.dentro.de    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>Valor:  urbana</v>
+        <f t="shared" ref="S20" si="17">_xlfn.CONCAT("Valor:  ", C20)</f>
+        <v>Valor:  dentro.de</v>
       </c>
       <c r="T20" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U20" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>Propriedade  urbana</v>
+        <f t="shared" ref="U20" si="18">_xlfn.CONCAT("Propriedade  ",F20, )</f>
+        <v>Propriedade  é.dentro.de</v>
       </c>
       <c r="V20" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>urbana</v>
+        <f t="shared" ref="V20" si="19">C20</f>
+        <v>dentro.de</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4131,21 +4126,21 @@
         <v>urbana</v>
       </c>
       <c r="C21" s="41" t="str">
-        <f t="shared" ref="C21:C23" si="13">MID(F21,FIND(".",F21,1)+1,100)</f>
+        <f t="shared" ref="C21:C23" si="20">MID(F21,FIND(".",F21,1)+1,100)</f>
         <v>cidade</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f>F20</f>
+        <f>E20</f>
         <v>urbana</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>10</v>
@@ -4177,11 +4172,11 @@
       </c>
       <c r="Q21" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R21" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.cidade    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: tem.cidade    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S21" s="17" t="str">
         <f t="shared" si="2"/>
@@ -4204,25 +4199,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="33" t="str">
-        <f t="shared" ref="B22:B24" si="14">E22</f>
+        <f t="shared" ref="B22:B23" si="21">E22</f>
         <v>urbana</v>
       </c>
       <c r="C22" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>bairro</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f>E21</f>
+        <f t="shared" ref="E22:E23" si="22">E21</f>
         <v>urbana</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>10</v>
@@ -4254,11 +4249,11 @@
       </c>
       <c r="Q22" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R22" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Propriedade: tem.bairro    Domínio: BIM     Range: Urbano</v>
+        <v>Propriedade: tem.bairro    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S22" s="17" t="str">
         <f t="shared" si="2"/>
@@ -4281,25 +4276,25 @@
         <v>23</v>
       </c>
       <c r="B23" s="33" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>urbana</v>
       </c>
       <c r="C23" s="41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>número</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ref="E23:E24" si="15">E22</f>
+        <f t="shared" si="22"/>
         <v>urbana</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H23" s="24" t="s">
         <v>10</v>
@@ -4331,11 +4326,11 @@
       </c>
       <c r="Q23" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R23" s="17" t="str">
-        <f t="shared" ref="R23" si="16">_xlfn.CONCAT("Propriedade: ",  F23, "    Domínio: ", P23, "     Range: ", Q23)</f>
-        <v>Propriedade: tem.número    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R23" si="23">_xlfn.CONCAT("Propriedade: ",  F23, "    Domínio: ", P23, "     Range: ", Q23)</f>
+        <v>Propriedade: tem.número    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S23" s="17" t="str">
         <f t="shared" si="2"/>
@@ -4357,49 +4352,47 @@
       <c r="A24" s="46">
         <v>24</v>
       </c>
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="14"/>
-        <v>urbana</v>
-      </c>
-      <c r="C24" s="41" t="str">
-        <f t="shared" ref="C24" si="17">MID(F24,FIND(".",F24,1)+1,100)</f>
-        <v>descrição</v>
-      </c>
-      <c r="D24" s="36" t="s">
+      <c r="B24" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="34" t="str">
+        <f t="shared" ref="C24" si="24">F24</f>
+        <v>de.Identificação</v>
+      </c>
+      <c r="D24" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>urbana</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="24" t="s">
+      <c r="E24" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="P24" s="9" t="str">
@@ -4408,73 +4401,75 @@
       </c>
       <c r="Q24" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R24" s="17" t="str">
-        <f t="shared" ref="R24:R27" si="18">_xlfn.CONCAT("Propriedade: ",  F24, "    Domínio: ", P24, "     Range: ", Q24)</f>
-        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R24:R26" si="25">_xlfn.CONCAT("Propriedade: ",  F24, "    Domínio: ", P24, "     Range: ", Q24)</f>
+        <v>Propriedade: de.Identificação    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S24" s="17" t="str">
-        <f t="shared" ref="S24:S27" si="19">_xlfn.CONCAT("Valor:  ", C24)</f>
-        <v>Valor:  descrição</v>
+        <f t="shared" ref="S24:S26" si="26">_xlfn.CONCAT("Valor:  ", C24)</f>
+        <v>Valor:  de.Identificação</v>
       </c>
       <c r="T24" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U24" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.descrição</v>
+        <v>Propriedade  de.Identificação</v>
       </c>
       <c r="V24" s="25" t="str">
-        <f t="shared" ref="V24:V27" si="20">C24</f>
-        <v>descrição</v>
+        <f t="shared" ref="V24:V26" si="27">C24</f>
+        <v>de.Identificação</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="46">
         <v>25</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="34" t="str">
-        <f t="shared" ref="C25" si="21">F25</f>
+      <c r="B25" s="27" t="str">
+        <f>E25</f>
         <v>de.Identificação</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="C25" s="39" t="str">
+        <f t="shared" ref="C25" si="28">F25</f>
+        <v>urbana</v>
+      </c>
+      <c r="D25" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25" s="23" t="s">
+      <c r="E25" s="28" t="str">
+        <f>F24</f>
+        <v>de.Identificação</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="24" t="s">
         <v>10</v>
       </c>
       <c r="P25" s="9" t="str">
@@ -4483,52 +4478,52 @@
       </c>
       <c r="Q25" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R25" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Propriedade: de.Identificação    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="25"/>
+        <v>Propriedade: urbana    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S25" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Valor:  de.Identificação</v>
+        <f t="shared" si="26"/>
+        <v>Valor:  urbana</v>
       </c>
       <c r="T25" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U25" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  de.Identificação</v>
+        <v>Propriedade  urbana</v>
       </c>
       <c r="V25" s="25" t="str">
-        <f t="shared" si="20"/>
-        <v>de.Identificação</v>
+        <f t="shared" si="27"/>
+        <v>urbana</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46">
         <v>26</v>
       </c>
-      <c r="B26" s="27" t="str">
-        <f>E26</f>
-        <v>de.Identificação</v>
-      </c>
-      <c r="C26" s="39" t="str">
-        <f t="shared" ref="C26" si="22">F26</f>
+      <c r="B26" s="33" t="str">
+        <f t="shared" ref="B26" si="29">E26</f>
         <v>urbana</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="C26" s="41" t="str">
+        <f t="shared" ref="C26" si="30">MID(F26,FIND(".",F26,1)+1,100)</f>
+        <v>AP</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="28" t="str">
+      <c r="E26" s="12" t="str">
         <f>F25</f>
-        <v>de.Identificação</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>10</v>
+        <v>urbana</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>10</v>
@@ -4560,26 +4555,26 @@
       </c>
       <c r="Q26" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R26" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Propriedade: urbana    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="25"/>
+        <v>Propriedade: tem.AP    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S26" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Valor:  urbana</v>
+        <f t="shared" si="26"/>
+        <v>Valor:  AP</v>
       </c>
       <c r="T26" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U26" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  urbana</v>
+        <v>Propriedade  tem.AP</v>
       </c>
       <c r="V26" s="25" t="str">
-        <f t="shared" si="20"/>
-        <v>urbana</v>
+        <f t="shared" si="27"/>
+        <v>AP</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4587,25 +4582,25 @@
         <v>27</v>
       </c>
       <c r="B27" s="33" t="str">
-        <f t="shared" ref="B27" si="23">E27</f>
+        <f t="shared" ref="B27:B28" si="31">E27</f>
         <v>urbana</v>
       </c>
       <c r="C27" s="41" t="str">
-        <f t="shared" ref="C27" si="24">MID(F27,FIND(".",F27,1)+1,100)</f>
-        <v>AP</v>
+        <f t="shared" ref="C27:C28" si="32">MID(F27,FIND(".",F27,1)+1,100)</f>
+        <v>RA</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f>F26</f>
+        <f>E26</f>
         <v>urbana</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>10</v>
@@ -4637,26 +4632,26 @@
       </c>
       <c r="Q27" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R27" s="17" t="str">
-        <f t="shared" si="18"/>
-        <v>Propriedade: tem.AP    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R27:R28" si="33">_xlfn.CONCAT("Propriedade: ",  F27, "    Domínio: ", P27, "     Range: ", Q27)</f>
+        <v>Propriedade: tem.RA    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S27" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v>Valor:  AP</v>
+        <f t="shared" ref="S27:S28" si="34">_xlfn.CONCAT("Valor:  ", C27)</f>
+        <v>Valor:  RA</v>
       </c>
       <c r="T27" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U27" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.AP</v>
+        <v>Propriedade  tem.RA</v>
       </c>
       <c r="V27" s="25" t="str">
-        <f t="shared" si="20"/>
-        <v>AP</v>
+        <f t="shared" ref="V27:V28" si="35">C27</f>
+        <v>RA</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,12 +4659,12 @@
         <v>28</v>
       </c>
       <c r="B28" s="33" t="str">
-        <f t="shared" ref="B28:B29" si="25">E28</f>
+        <f t="shared" si="31"/>
         <v>urbana</v>
       </c>
       <c r="C28" s="41" t="str">
-        <f t="shared" ref="C28:C29" si="26">MID(F28,FIND(".",F28,1)+1,100)</f>
-        <v>RA</v>
+        <f t="shared" si="32"/>
+        <v>código.RA</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>4</v>
@@ -4679,10 +4674,10 @@
         <v>urbana</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H28" s="24" t="s">
         <v>10</v>
@@ -4714,26 +4709,26 @@
       </c>
       <c r="Q28" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R28" s="17" t="str">
-        <f t="shared" ref="R28:R29" si="27">_xlfn.CONCAT("Propriedade: ",  F28, "    Domínio: ", P28, "     Range: ", Q28)</f>
-        <v>Propriedade: tem.RA    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" si="33"/>
+        <v>Propriedade: tem.código.RA    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S28" s="17" t="str">
-        <f t="shared" ref="S28:S29" si="28">_xlfn.CONCAT("Valor:  ", C28)</f>
-        <v>Valor:  RA</v>
+        <f t="shared" si="34"/>
+        <v>Valor:  código.RA</v>
       </c>
       <c r="T28" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U28" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.RA</v>
+        <v>Propriedade  tem.código.RA</v>
       </c>
       <c r="V28" s="25" t="str">
-        <f t="shared" ref="V28:V29" si="29">C28</f>
-        <v>RA</v>
+        <f t="shared" si="35"/>
+        <v>código.RA</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4741,12 +4736,12 @@
         <v>29</v>
       </c>
       <c r="B29" s="33" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="B29" si="36">E29</f>
         <v>urbana</v>
       </c>
       <c r="C29" s="41" t="str">
-        <f t="shared" si="26"/>
-        <v>código.RA</v>
+        <f t="shared" ref="C29" si="37">MID(F29,FIND(".",F29,1)+1,100)</f>
+        <v>descrição</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>4</v>
@@ -4756,10 +4751,10 @@
         <v>urbana</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>33</v>
+        <v>111</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>10</v>
@@ -4791,113 +4786,36 @@
       </c>
       <c r="Q29" s="11" t="str">
         <f t="shared" si="5"/>
-        <v>Urbano</v>
+        <v>Limite</v>
       </c>
       <c r="R29" s="17" t="str">
-        <f t="shared" si="27"/>
-        <v>Propriedade: tem.código.RA    Domínio: BIM     Range: Urbano</v>
+        <f t="shared" ref="R29" si="38">_xlfn.CONCAT("Propriedade: ",  F29, "    Domínio: ", P29, "     Range: ", Q29)</f>
+        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Limite</v>
       </c>
       <c r="S29" s="17" t="str">
-        <f t="shared" si="28"/>
-        <v>Valor:  código.RA</v>
+        <f t="shared" ref="S29" si="39">_xlfn.CONCAT("Valor:  ", C29)</f>
+        <v>Valor:  descrição</v>
       </c>
       <c r="T29" s="40" t="s">
         <v>10</v>
       </c>
       <c r="U29" s="25" t="str">
         <f t="shared" si="6"/>
-        <v>Propriedade  tem.código.RA</v>
+        <v>Propriedade  tem.descrição</v>
       </c>
       <c r="V29" s="25" t="str">
-        <f t="shared" si="29"/>
-        <v>código.RA</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="7.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46">
-        <v>30</v>
-      </c>
-      <c r="B30" s="33" t="str">
-        <f t="shared" ref="B30" si="30">E30</f>
-        <v>urbana</v>
-      </c>
-      <c r="C30" s="41" t="str">
-        <f t="shared" ref="C30" si="31">MID(F30,FIND(".",F30,1)+1,100)</f>
-        <v>descrição</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="12" t="str">
-        <f>E29</f>
-        <v>urbana</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P30" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>BIM</v>
-      </c>
-      <c r="Q30" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>Urbano</v>
-      </c>
-      <c r="R30" s="17" t="str">
-        <f t="shared" ref="R30" si="32">_xlfn.CONCAT("Propriedade: ",  F30, "    Domínio: ", P30, "     Range: ", Q30)</f>
-        <v>Propriedade: tem.descrição    Domínio: BIM     Range: Urbano</v>
-      </c>
-      <c r="S30" s="17" t="str">
-        <f t="shared" ref="S30" si="33">_xlfn.CONCAT("Valor:  ", C30)</f>
-        <v>Valor:  descrição</v>
-      </c>
-      <c r="T30" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="U30" s="25" t="str">
-        <f t="shared" si="6"/>
-        <v>Propriedade  tem.descrição</v>
-      </c>
-      <c r="V30" s="25" t="str">
-        <f t="shared" ref="V30" si="34">C30</f>
+        <f t="shared" ref="V29" si="40">C29</f>
         <v>descrição</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:E15 D25:E25 B2:B30">
+  <conditionalFormatting sqref="D24:E24 D20:E20 D2:E14 B2:B29">
     <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:O1048576 T2:T30">
+  <conditionalFormatting sqref="T2:T29 G1:O1048576">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
@@ -4910,7 +4828,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E9 C16 C20" formula="1"/>
+    <ignoredError sqref="E9 C15 C19" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4935,64 +4853,64 @@
         <v>1</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="J1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
